--- a/medicine/Mort/Liste_d'assassins_notoires/Liste_d'assassins_notoires.xlsx
+++ b/medicine/Mort/Liste_d'assassins_notoires/Liste_d'assassins_notoires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vous trouverez ci-dessous une liste d'assassins notoires. Elle est classée en ordre alphabétique.
 En ce qui concerne les tueurs en série, vous pouvez consulter la liste de tueurs en série. Les tueurs de masse sont listés dans tueur de masse.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,12 +551,14 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yigal Amir, assassin d'Yitzhak Rabin en 1995[1].
-Jacob Johan Anckarström, assassin de Gustave III de Suède en 1792[2].
-Francesco Arcangeli, assassin de Johann Joachim Winckelmann en 1768[3].
-Susan Atkins, co-assassine de Sharon Tate et 7 autres personnes en 1969[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yigal Amir, assassin d'Yitzhak Rabin en 1995.
+Jacob Johan Anckarström, assassin de Gustave III de Suède en 1792.
+Francesco Arcangeli, assassin de Johann Joachim Winckelmann en 1768.
+Susan Atkins, co-assassine de Sharon Tate et 7 autres personnes en 1969.
 Alfredo Astiz, co-assassin d'Alice Domon, Léonie Duquet et Dagmar Hagelin en 1977.
 Friedrich Adler, assassin de Karl Stürgkh en 1916.
 Saburo Aizawa, assassin de Tetsuzan Nagata en 1935.
@@ -561,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +593,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manny Babbit, assassin de Leah Schendel en 1980.
 Gertrude Baniszewski, assassine de Sylvia Likens en 1965.
@@ -611,7 +627,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,7 +645,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Henriette Caillaux, assassine de Gaston Calmette en 1914.
 Cassius (Caïus Cassius Longinus), assassin de Jules César en -44.
@@ -661,7 +679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -679,7 +697,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Christian Didier, assassin de René Bousquet en 1993.
 Dragutin Dimitrijević, co-assassin d'Alexandre Ier de Serbie en 1903.
@@ -700,7 +720,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -718,7 +738,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ruth Ellis, assassine de son amant David Blakely en 1955, dernière femme exécutée au Royaume-Uni.</t>
         </is>
@@ -730,7 +752,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -748,7 +770,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>John Felton, assassin de George Villiers, 1er duc de Buckingham en 1628.
 Émile Ferfaille, assassin de sa compagne, Rachel Ryckewaert en 1917. Dernier homme exécuté en Belgique.
@@ -762,7 +786,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -780,7 +804,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Nathan Gale, assassin de Dimebag Darrell en 2004.
 Marvin Gay, Sr., assassin de son fils, le chanteur Marvin Gaye en 1984.
@@ -805,7 +831,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +849,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Soleyman el-Halaby, assassin du général Jean-Baptiste Kléber, en 1800.
 James Hamilton of Bothwellhaugh, assassin de James Stuart en 1570.
@@ -846,7 +874,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -864,7 +892,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Félix Ioussoupov, co-assassin de Grigori Raspoutine en 1916.
 Iakov Iourovski, chef des exécuteurs du tsar Nicolas II, de la tsarine Alexandra, du tsarévitch Alexis et des grandes-duchesses Olga, Tatiana, Maria et Anastasia en 1917.
@@ -879,7 +909,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -897,7 +927,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>An Jung-geun, assassin de Hirobumi Itō en 1909.
 Jack l'Éventreur, assassin des prostituées de Londres.
@@ -914,7 +946,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -932,7 +964,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ivan Kaliaïev, assassin de Serge Alexandrovitch de Russie en 1905.
 Gu Kailai, assassine de l'homme d'affaires Neil Heywood en 2011.
@@ -954,7 +988,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,7 +1006,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Marie Lafarge, condamnée pour l'empoisonnement de son mari, Charles Lafarge, en 1840.
 Locuste, empoisonneuse probable de l'empereur Claude en 54 et de son fils Britannicus en 55.
@@ -994,7 +1030,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1012,7 +1048,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Jean Maillart, assassin d'Étienne Marcel en 1358.
 Thomas Mair (en), assassin de Jo Cox en 2016.
@@ -1046,7 +1084,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1064,7 +1102,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Narcisse, assassin de l'empereur romain Commode en 192.
 Violette Nozière, assassine de son père, Baptiste Nozière en 1933.
@@ -1078,7 +1118,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1096,7 +1136,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Edward O'Kelley, assassin de Robert Ford en 1882.
 Alexeï Orlov, assassin présumé de Pierre III en 1762.</t>
@@ -1109,7 +1151,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1127,7 +1169,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Gavrilo Princip, assassin de l'archiduc François-Ferdinand et de son épouse, Sophie Chotek en 1914.
 Giuseppe Pelosi, assassin de Pier Paolo Pasolini en 1975.
@@ -1149,7 +1193,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1168,6 +1212,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1175,7 +1221,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1193,7 +1239,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>James Earl Ray, assassin contesté de Martin Luther King en 1968.
 François Ravaillac, assassin du roi Henri IV en 1610.
@@ -1216,7 +1264,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1234,7 +1282,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Cornelius Sabinus, co-assassin de l'empereur romain Caligula en 41.
 Issei Sagawa, assassin d'une étudiante, Renée Hartevelt en 1981.
@@ -1266,7 +1316,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1284,7 +1334,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Vlado Tchernozemski, assassin d'Alexandre Ier de Yougoslavie en 1934.
 Ernst Werner Techow, co-assassin de Walther Rathenau en 1922.
@@ -1305,7 +1357,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1323,7 +1375,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Raoul Villain, assassin de Jean Jaurès en 1914.
 Leslie Van Houten, co-assassine de Leno et Rosemary LaBianca en 1969.
@@ -1339,7 +1393,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1357,7 +1411,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Carl Weiss, assassin de Huey Long en 1935.
 Patrick J. Whelan, reconnu coupable de l'assassinat de Thomas D'Arcy McGee le 7 avril 1868.
@@ -1373,7 +1429,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1392,6 +1448,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1399,7 +1457,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1417,7 +1475,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Tetsuya Yamagami, assassin de Shinzō Abe en 2022.
 Otoya Yamaguchi, assassin d'Inejirō Asanuma en 1960.
@@ -1433,7 +1493,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27assassins_notoires</t>
+          <t>Liste_d'assassins_notoires</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1451,7 +1511,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Giuseppe Zangara, assassin d'Anton Cermak en 1933.
 Nikolaï Zoubov, co-assassin de Paul Ier de Russie en 1801.</t>
